--- a/excel/finished/wg7#高炉/7高炉操作管理日记.xlsx
+++ b/excel/finished/wg7#高炉/7高炉操作管理日记.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="223">
   <si>
     <t>编号：JAAZ0002002A</t>
   </si>
@@ -684,12 +684,6 @@
     <t>BF7_L2C_BD_TI510A_1d_avg</t>
   </si>
   <si>
-    <t>BF7_L2C_TP_BTI0203_1h_avg</t>
-  </si>
-  <si>
-    <t>BF7_L2C_TP_BTI0202_1h_avg</t>
-  </si>
-  <si>
     <t>BF7_L2C_BD_tuyereArea_1d_avg</t>
   </si>
   <si>
@@ -707,29 +701,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="14">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ ;[Red]\-0.000\ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ ;[Red]\-0.0\ "/>
+    <numFmt numFmtId="178" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="179" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="182" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="183" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="177" formatCode="0.000_ ;[Red]\-0.000\ "/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0_ ;[Red]\-0\ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0_ "/>
-    <numFmt numFmtId="182" formatCode="0.0_ "/>
-    <numFmt numFmtId="183" formatCode="0.000_ "/>
-    <numFmt numFmtId="184" formatCode="0.0_ ;[Red]\-0.0\ "/>
-    <numFmt numFmtId="185" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="184" formatCode="0.000_ "/>
+    <numFmt numFmtId="185" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="27">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,16 +770,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -804,29 +792,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -835,7 +800,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,40 +814,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,14 +831,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -913,14 +868,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -947,7 +934,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,7 +952,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,19 +1060,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,139 +1108,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1804,29 +1791,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1846,6 +1821,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1861,27 +1856,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1892,10 +1879,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1904,144 +1891,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="59" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="57" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2050,864 +2037,864 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="32" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="41" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="42" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="31" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="32" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="31" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="32" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="7" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="42" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="31" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="32" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -20353,10 +20340,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T73"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14:P16"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -20364,7 +20351,7 @@
     <col min="3" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60" spans="1:20">
+    <row r="1" ht="60" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>203</v>
       </c>
@@ -20417,14 +20404,8 @@
       <c r="R1" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -20446,10 +20427,8 @@
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="1:20">
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -20468,10 +20447,8 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="1:20">
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -20490,10 +20467,8 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-    </row>
-    <row r="5" spans="1:20">
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -20515,10 +20490,8 @@
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-    </row>
-    <row r="6" spans="1:20">
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -20537,10 +20510,8 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-    </row>
-    <row r="7" spans="1:20">
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -20559,10 +20530,8 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-    </row>
-    <row r="8" spans="1:20">
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -20584,10 +20553,8 @@
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:20">
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -20606,10 +20573,8 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-    </row>
-    <row r="10" spans="1:20">
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -20628,10 +20593,8 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-    </row>
-    <row r="11" spans="1:20">
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -20653,10 +20616,8 @@
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:20">
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -20675,10 +20636,8 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-    </row>
-    <row r="13" spans="1:20">
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -20697,10 +20656,8 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-    </row>
-    <row r="14" spans="1:20">
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -20722,10 +20679,8 @@
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-    </row>
-    <row r="15" spans="1:20">
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -20744,10 +20699,8 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-    </row>
-    <row r="16" spans="1:20">
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -20766,10 +20719,8 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-    </row>
-    <row r="17" spans="1:20">
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -20791,10 +20742,8 @@
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-    </row>
-    <row r="18" spans="1:20">
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -20813,10 +20762,8 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-    </row>
-    <row r="19" spans="1:20">
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -20835,10 +20782,8 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-    </row>
-    <row r="20" spans="1:20">
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -20860,10 +20805,8 @@
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-    </row>
-    <row r="21" spans="1:20">
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -20882,10 +20825,8 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-    </row>
-    <row r="22" spans="1:20">
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -20904,10 +20845,8 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-    </row>
-    <row r="23" spans="1:20">
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -20929,10 +20868,8 @@
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-    </row>
-    <row r="24" spans="1:20">
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -20951,10 +20888,8 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-    </row>
-    <row r="25" spans="1:20">
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -20973,10 +20908,8 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-    </row>
-    <row r="26" spans="1:20">
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -20998,10 +20931,8 @@
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-    </row>
-    <row r="27" spans="1:20">
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -21020,10 +20951,8 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-    </row>
-    <row r="28" spans="1:20">
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -21042,10 +20971,8 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-    </row>
-    <row r="29" spans="1:20">
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -21067,10 +20994,8 @@
       </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-    </row>
-    <row r="30" spans="1:20">
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -21089,10 +21014,8 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-    </row>
-    <row r="31" spans="1:20">
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -21111,10 +21034,8 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-    </row>
-    <row r="32" spans="1:20">
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -21136,10 +21057,8 @@
       </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-    </row>
-    <row r="33" spans="1:20">
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -21158,10 +21077,8 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-    </row>
-    <row r="34" spans="1:20">
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -21180,10 +21097,8 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-    </row>
-    <row r="35" spans="1:20">
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -21205,10 +21120,8 @@
       </c>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-    </row>
-    <row r="36" spans="1:20">
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -21227,10 +21140,8 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-    </row>
-    <row r="37" spans="1:20">
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -21249,10 +21160,8 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-    </row>
-    <row r="38" spans="1:20">
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -21274,10 +21183,8 @@
       </c>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-    </row>
-    <row r="39" spans="1:20">
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -21296,10 +21203,8 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-    </row>
-    <row r="40" spans="1:20">
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -21318,10 +21223,8 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-    </row>
-    <row r="41" spans="1:20">
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -21343,10 +21246,8 @@
       </c>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-    </row>
-    <row r="42" spans="1:20">
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -21365,10 +21266,8 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-    </row>
-    <row r="43" spans="1:20">
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -21387,10 +21286,8 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-    </row>
-    <row r="44" spans="1:20">
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -21412,10 +21309,8 @@
       </c>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-    </row>
-    <row r="45" spans="1:20">
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -21434,10 +21329,8 @@
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-    </row>
-    <row r="46" spans="1:20">
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -21456,10 +21349,8 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-    </row>
-    <row r="47" spans="1:20">
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -21481,10 +21372,8 @@
       </c>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-    </row>
-    <row r="48" spans="1:20">
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -21503,10 +21392,8 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-    </row>
-    <row r="49" spans="1:20">
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -21525,10 +21412,8 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-    </row>
-    <row r="50" spans="1:20">
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -21550,10 +21435,8 @@
       </c>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-    </row>
-    <row r="51" spans="1:20">
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -21572,10 +21455,8 @@
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-    </row>
-    <row r="52" spans="1:20">
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -21594,10 +21475,8 @@
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-    </row>
-    <row r="53" spans="1:20">
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -21619,10 +21498,8 @@
       </c>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-    </row>
-    <row r="54" spans="1:20">
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -21641,10 +21518,8 @@
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="4"/>
-    </row>
-    <row r="55" spans="1:20">
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -21663,10 +21538,8 @@
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-    </row>
-    <row r="56" spans="1:20">
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -21688,10 +21561,8 @@
       </c>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-    </row>
-    <row r="57" spans="1:20">
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -21710,10 +21581,8 @@
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-    </row>
-    <row r="58" spans="1:20">
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -21732,10 +21601,8 @@
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-    </row>
-    <row r="59" spans="1:20">
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -21757,10 +21624,8 @@
       </c>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-    </row>
-    <row r="60" spans="1:20">
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -21779,10 +21644,8 @@
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-    </row>
-    <row r="61" spans="1:20">
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -21801,10 +21664,8 @@
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-    </row>
-    <row r="62" spans="1:20">
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -21826,10 +21687,8 @@
       </c>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="4"/>
-    </row>
-    <row r="63" spans="1:20">
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -21848,10 +21707,8 @@
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-    </row>
-    <row r="64" spans="1:20">
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -21870,10 +21727,8 @@
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
-    </row>
-    <row r="65" spans="1:20">
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -21895,10 +21750,8 @@
       </c>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="4"/>
-    </row>
-    <row r="66" spans="1:20">
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -21917,10 +21770,8 @@
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-    </row>
-    <row r="67" spans="1:20">
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -21939,10 +21790,8 @@
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
-      <c r="S67" s="4"/>
-      <c r="T67" s="4"/>
-    </row>
-    <row r="68" spans="1:20">
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -21964,10 +21813,8 @@
       </c>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4"/>
-    </row>
-    <row r="69" spans="1:20">
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -21986,10 +21833,8 @@
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-    </row>
-    <row r="70" spans="1:20">
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -22008,10 +21853,8 @@
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-    </row>
-    <row r="71" spans="1:20">
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -22033,10 +21876,8 @@
       </c>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
-      <c r="T71" s="4"/>
-    </row>
-    <row r="72" spans="1:20">
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -22055,10 +21896,8 @@
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
-    </row>
-    <row r="73" spans="1:20">
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -22077,11 +21916,9 @@
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="480">
+  <mergeCells count="432">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
@@ -22514,54 +22351,6 @@
     <mergeCell ref="R65:R67"/>
     <mergeCell ref="R68:R70"/>
     <mergeCell ref="R71:R73"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="S8:S10"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="S20:S22"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="S26:S28"/>
-    <mergeCell ref="S29:S31"/>
-    <mergeCell ref="S32:S34"/>
-    <mergeCell ref="S35:S37"/>
-    <mergeCell ref="S38:S40"/>
-    <mergeCell ref="S41:S43"/>
-    <mergeCell ref="S44:S46"/>
-    <mergeCell ref="S47:S49"/>
-    <mergeCell ref="S50:S52"/>
-    <mergeCell ref="S53:S55"/>
-    <mergeCell ref="S56:S58"/>
-    <mergeCell ref="S59:S61"/>
-    <mergeCell ref="S62:S64"/>
-    <mergeCell ref="S65:S67"/>
-    <mergeCell ref="S68:S70"/>
-    <mergeCell ref="S71:S73"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="T8:T10"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="T20:T22"/>
-    <mergeCell ref="T23:T25"/>
-    <mergeCell ref="T26:T28"/>
-    <mergeCell ref="T29:T31"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="T35:T37"/>
-    <mergeCell ref="T38:T40"/>
-    <mergeCell ref="T41:T43"/>
-    <mergeCell ref="T44:T46"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="T50:T52"/>
-    <mergeCell ref="T53:T55"/>
-    <mergeCell ref="T56:T58"/>
-    <mergeCell ref="T59:T61"/>
-    <mergeCell ref="T62:T64"/>
-    <mergeCell ref="T65:T67"/>
-    <mergeCell ref="T68:T70"/>
-    <mergeCell ref="T71:T73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -22586,13 +22375,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -22630,7 +22419,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1">
         <v>7</v>

--- a/excel/finished/wg7#高炉/7高炉操作管理日记.xlsx
+++ b/excel/finished/wg7#高炉/7高炉操作管理日记.xlsx
@@ -678,10 +678,10 @@
     <t>BF7_L2M_AvgTopTemp_1h_avg</t>
   </si>
   <si>
-    <t>BF7_L2C_BD_TI511A_1d_avg</t>
+    <t>BF7_L2C_BD_TI511A_1h_avg</t>
   </si>
   <si>
-    <t>BF7_L2C_BD_TI510A_1d_avg</t>
+    <t>BF7_L2C_BD_TI510A_1h_avg</t>
   </si>
   <si>
     <t>BF7_L2C_BD_tuyereArea_1d_avg</t>
@@ -701,20 +701,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="14">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000_ ;[Red]\-0.000\ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ ;[Red]\-0.0\ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ ;[Red]\-0.000\ "/>
     <numFmt numFmtId="178" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="179" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
     <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="182" formatCode="0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="184" formatCode="0.000_ "/>
-    <numFmt numFmtId="185" formatCode="0.0_ "/>
+    <numFmt numFmtId="182" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="183" formatCode="0.0_ "/>
+    <numFmt numFmtId="184" formatCode="0_ "/>
+    <numFmt numFmtId="185" formatCode="0.0_ ;[Red]\-0.0\ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -777,10 +777,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -793,7 +808,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,59 +816,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,16 +837,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,11 +859,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -910,6 +878,38 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -934,7 +934,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,73 +1042,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,31 +1078,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,43 +1090,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,7 +1108,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1776,6 +1776,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1787,21 +1820,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1832,25 +1850,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1864,25 +1873,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1891,133 +1891,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="59" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="57" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2136,7 +2136,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2148,7 +2148,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2166,7 +2166,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2175,10 +2175,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2190,28 +2190,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2229,7 +2229,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2262,13 +2262,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="32" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="31" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="32" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2358,10 +2358,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="41" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2379,10 +2379,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="31" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="32" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="31" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="32" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2416,9 +2416,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2450,15 +2450,6 @@
     <xf numFmtId="180" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2468,13 +2459,22 @@
     <xf numFmtId="184" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2633,22 +2633,22 @@
     <xf numFmtId="180" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2678,13 +2678,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2768,13 +2768,13 @@
     <xf numFmtId="180" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2819,13 +2819,13 @@
     <xf numFmtId="180" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2837,13 +2837,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2855,13 +2855,13 @@
     <xf numFmtId="180" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2876,13 +2876,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -20342,8 +20342,8 @@
   <sheetPr/>
   <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
